--- a/aiurt-module-system/src/main/resources/templates/constructionWeekPlanCommand.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/constructionWeekPlanCommand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\txyw1\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC52C38D-5C3D-4F2A-96D2-738ED4F62DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C814A-2024-4842-B6C0-6A8C21C176B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="675" windowWidth="28800" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="运营施工及行车计划申报导入模板" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,62 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
+    <t>作业性质</t>
+  </si>
+  <si>
+    <t>作业类别</t>
+  </si>
+  <si>
+    <t>作业单位</t>
+  </si>
+  <si>
+    <t>作业日期</t>
+  </si>
+  <si>
+    <t>作业时间</t>
+  </si>
+  <si>
+    <t>线路作业范围</t>
+  </si>
+  <si>
+    <t>供电要求</t>
+  </si>
+  <si>
+    <t>作业内容</t>
+  </si>
+  <si>
+    <t>防护措施</t>
+  </si>
+  <si>
+    <t>施工负责人</t>
+  </si>
+  <si>
+    <t>配合部门</t>
+  </si>
+  <si>
+    <t>请点车站</t>
+  </si>
+  <si>
+    <t>销点车站</t>
+  </si>
+  <si>
+    <t>辅站</t>
+  </si>
+  <si>
+    <t>作业人数</t>
+  </si>
+  <si>
+    <t>大中型器具</t>
+  </si>
+  <si>
+    <t>运营施工及行车计划申报导入模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业线路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>运营施工及行车计划申报导入模板
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
@@ -35,63 +91,8 @@
 1.辅站: 站点 : 施工作业证编号 - 姓名  例子   孟家屯站：110437-刘鑫 (可以只填站点,多个站点逗号分隔),可以为空!!
 2.施工负责人：姓名 + "-" +电话号码 ! 例子: XXX-178****8688
 3.作业日期: yyyy-MM-dd
-4.作业时间: XX:XX - XX:XX
+4.作业时间: XX:XX-XX:XX
 5.作业人数: 请用数字输入</t>
-  </si>
-  <si>
-    <t>作业性质</t>
-  </si>
-  <si>
-    <t>作业类别</t>
-  </si>
-  <si>
-    <t>作业单位</t>
-  </si>
-  <si>
-    <t>作业日期</t>
-  </si>
-  <si>
-    <t>作业时间</t>
-  </si>
-  <si>
-    <t>线路作业范围</t>
-  </si>
-  <si>
-    <t>供电要求</t>
-  </si>
-  <si>
-    <t>作业内容</t>
-  </si>
-  <si>
-    <t>防护措施</t>
-  </si>
-  <si>
-    <t>施工负责人</t>
-  </si>
-  <si>
-    <t>配合部门</t>
-  </si>
-  <si>
-    <t>请点车站</t>
-  </si>
-  <si>
-    <t>销点车站</t>
-  </si>
-  <si>
-    <t>辅站</t>
-  </si>
-  <si>
-    <t>作业人数</t>
-  </si>
-  <si>
-    <t>大中型器具</t>
-  </si>
-  <si>
-    <t>运营施工及行车计划申报导入模板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业线路</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -217,16 +218,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,98 +531,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
